--- a/compared/compare_results_normalized_prob_freq.xlsx
+++ b/compared/compare_results_normalized_prob_freq.xlsx
@@ -494,10 +494,10 @@
         <v>40.32258064516129</v>
       </c>
       <c r="G2" t="n">
-        <v>37.91398845190108</v>
+        <v>35.88083416087388</v>
       </c>
       <c r="H2" t="n">
-        <v>2.408592193260205</v>
+        <v>4.441746484287407</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>33.60215053763442</v>
       </c>
       <c r="G3" t="n">
-        <v>11.14091949014054</v>
+        <v>10.39126117179742</v>
       </c>
       <c r="H3" t="n">
-        <v>22.46123104749388</v>
+        <v>23.21088936583699</v>
       </c>
     </row>
     <row r="4">
@@ -554,10 +554,10 @@
         <v>25.80645161290322</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1402658241638523</v>
+        <v>0.1747765640516385</v>
       </c>
       <c r="H4" t="n">
-        <v>25.66618578873937</v>
+        <v>25.63167504885159</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>25.80645161290322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7884845843773832</v>
+        <v>0.3098311817279047</v>
       </c>
       <c r="H5" t="n">
-        <v>25.01796702852584</v>
+        <v>25.49662043117532</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +614,10 @@
         <v>25.80645161290322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3431746377601046</v>
+        <v>0.6911618669314796</v>
       </c>
       <c r="H6" t="n">
-        <v>25.46327697514312</v>
+        <v>25.11528974597174</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +631,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -643,8 +643,12 @@
       <c r="F7" t="n">
         <v>21.50537634408602</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.003972194637537239</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.50140414944848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -657,7 +661,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -670,10 +674,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001361804118095653</v>
+        <v>0.003972194637537239</v>
       </c>
       <c r="H8" t="n">
-        <v>21.50401453996793</v>
+        <v>21.50140414944848</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -700,10 +704,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02042706177143479</v>
+        <v>5.167825223435949</v>
       </c>
       <c r="H9" t="n">
-        <v>21.48494928231458</v>
+        <v>16.33755112065007</v>
       </c>
     </row>
     <row r="10">
@@ -717,7 +721,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -730,10 +734,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G10" t="n">
-        <v>5.513944874169299</v>
+        <v>0.04766633565044687</v>
       </c>
       <c r="H10" t="n">
-        <v>15.99143146991672</v>
+        <v>21.45771000843557</v>
       </c>
     </row>
     <row r="11">
@@ -760,10 +764,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1620546900533827</v>
+        <v>0.04766633565044687</v>
       </c>
       <c r="H11" t="n">
-        <v>21.34332165403264</v>
+        <v>21.45771000843557</v>
       </c>
     </row>
     <row r="12">
@@ -777,7 +781,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -790,10 +794,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004085412354286959</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21.50129093173173</v>
+        <v>21.50537634408602</v>
       </c>
     </row>
     <row r="13">
@@ -820,10 +824,10 @@
         <v>21.50537634408602</v>
       </c>
       <c r="G13" t="n">
-        <v>8.740058829937903</v>
+        <v>14.20456802383317</v>
       </c>
       <c r="H13" t="n">
-        <v>12.76531751414812</v>
+        <v>7.30080832025285</v>
       </c>
     </row>
     <row r="14">
@@ -837,7 +841,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -849,8 +853,12 @@
       <c r="F14" t="n">
         <v>18.4331797235023</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.4331797235023</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -863,7 +871,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -876,10 +884,10 @@
         <v>18.4331797235023</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001361804118095653</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43181791938421</v>
+        <v>18.4331797235023</v>
       </c>
     </row>
     <row r="16">
@@ -906,10 +914,10 @@
         <v>18.14516129032258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4480335548534699</v>
+        <v>0.2502482621648461</v>
       </c>
       <c r="H16" t="n">
-        <v>17.69712773546911</v>
+        <v>17.89491302815774</v>
       </c>
     </row>
     <row r="17">
@@ -923,7 +931,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -936,10 +944,10 @@
         <v>18.14516129032258</v>
       </c>
       <c r="G17" t="n">
-        <v>1.783963394705306</v>
+        <v>0.1390268123138034</v>
       </c>
       <c r="H17" t="n">
-        <v>16.36119789561728</v>
+        <v>18.00613447800878</v>
       </c>
     </row>
     <row r="18">
@@ -953,7 +961,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -966,10 +974,10 @@
         <v>18.14516129032258</v>
       </c>
       <c r="G18" t="n">
-        <v>1.025438500926027</v>
+        <v>0.2621648460774578</v>
       </c>
       <c r="H18" t="n">
-        <v>17.11972278939656</v>
+        <v>17.88299644424513</v>
       </c>
     </row>
     <row r="19">
@@ -983,7 +991,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -996,10 +1004,10 @@
         <v>18.14516129032258</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8647456149907397</v>
+        <v>1.620655412115194</v>
       </c>
       <c r="H19" t="n">
-        <v>17.28041567533185</v>
+        <v>16.52450587820739</v>
       </c>
     </row>
     <row r="20">
@@ -1026,10 +1034,10 @@
         <v>14.51612903225807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001361804118095653</v>
+        <v>0.003972194637537239</v>
       </c>
       <c r="H20" t="n">
-        <v>14.51476722813997</v>
+        <v>14.51215683762053</v>
       </c>
     </row>
     <row r="21">
@@ -1056,10 +1064,10 @@
         <v>14.51612903225807</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001361804118095653</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>14.51476722813997</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="22">
@@ -1073,7 +1081,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1086,10 +1094,10 @@
         <v>12.09677419354839</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03540690707048698</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.0613672864779</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="23">
@@ -1103,7 +1111,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1115,8 +1123,12 @@
       <c r="F23" t="n">
         <v>12.09677419354839</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.04369414101290963</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.05308005253548</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1129,7 +1141,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1141,8 +1153,12 @@
       <c r="F24" t="n">
         <v>8.064516129032258</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.06355511420059583</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.000961014831661</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1168,10 +1184,10 @@
         <v>8.064516129032258</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005447216472382613</v>
+        <v>0.003972194637537239</v>
       </c>
       <c r="H25" t="n">
-        <v>8.059068912559875</v>
+        <v>8.060543934394721</v>
       </c>
     </row>
     <row r="26">
@@ -1198,10 +1214,10 @@
         <v>8.064516129032258</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006809020590478265</v>
+        <v>0.007944389275074478</v>
       </c>
       <c r="H26" t="n">
-        <v>8.057707108441781</v>
+        <v>8.056571739757183</v>
       </c>
     </row>
     <row r="27">
@@ -1228,10 +1244,10 @@
         <v>8.064516129032258</v>
       </c>
       <c r="G27" t="n">
-        <v>1.139830046846062</v>
+        <v>1.882820258192651</v>
       </c>
       <c r="H27" t="n">
-        <v>6.924686082186196</v>
+        <v>6.181695870839607</v>
       </c>
     </row>
     <row r="28">
@@ -1245,7 +1261,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1258,10 +1274,10 @@
         <v>8.064516129032258</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1715873188800523</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.892928810152206</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="29">
@@ -1270,12 +1286,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1287,8 +1303,12 @@
       <c r="F29" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.2065541211519364</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.24505878207387</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1301,7 +1321,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1313,8 +1333,12 @@
       <c r="F30" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.451612903225806</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1327,7 +1351,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1339,8 +1363,12 @@
       <c r="F31" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.451612903225806</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1353,7 +1381,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1365,8 +1393,12 @@
       <c r="F32" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.451612903225806</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1374,12 +1406,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1392,10 +1424,10 @@
         <v>6.451612903225806</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2723608236191306</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.179252079606675</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="34">
@@ -1421,8 +1453,12 @@
       <c r="F34" t="n">
         <v>5.376344086021505</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.376344086021505</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1448,10 +1484,10 @@
         <v>3.072196620583717</v>
       </c>
       <c r="G35" t="n">
-        <v>4.322366270835603</v>
+        <v>6.716981132075471</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.250169650251886</v>
+        <v>-3.644784511491754</v>
       </c>
     </row>
     <row r="36">
@@ -1460,12 +1496,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1478,10 +1514,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4371391219087047</v>
+        <v>0.01588877855014896</v>
       </c>
       <c r="H36" t="n">
-        <v>2.251032921102048</v>
+        <v>2.672283264460603</v>
       </c>
     </row>
     <row r="37">
@@ -1490,12 +1526,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1507,8 +1543,12 @@
       <c r="F37" t="n">
         <v>2.688172043010753</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.04369414101290963</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.644477901997843</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1521,7 +1561,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1534,10 +1574,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06536659766859135</v>
+        <v>0.05561072492552135</v>
       </c>
       <c r="H38" t="n">
-        <v>2.622805445342161</v>
+        <v>2.632561318085231</v>
       </c>
     </row>
     <row r="39">
@@ -1546,12 +1586,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1564,10 +1604,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03404510295239133</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.654126940058361</v>
+        <v>2.688172043010753</v>
       </c>
     </row>
     <row r="40">
@@ -1576,12 +1616,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1594,10 +1634,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3200239677524785</v>
+        <v>0.04369414101290963</v>
       </c>
       <c r="H40" t="n">
-        <v>2.368148075258274</v>
+        <v>2.644477901997843</v>
       </c>
     </row>
     <row r="41">
@@ -1624,10 +1664,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4820786578058612</v>
+        <v>0.09533267130089375</v>
       </c>
       <c r="H41" t="n">
-        <v>2.206093385204891</v>
+        <v>2.592839371709859</v>
       </c>
     </row>
     <row r="42">
@@ -1636,12 +1676,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1654,10 +1694,10 @@
         <v>2.688172043010753</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02178886588953045</v>
+        <v>0.01191658391261172</v>
       </c>
       <c r="H42" t="n">
-        <v>2.666383177121222</v>
+        <v>2.676255459098141</v>
       </c>
     </row>
     <row r="43">
@@ -1666,12 +1706,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1684,10 +1724,10 @@
         <v>2.016129032258065</v>
       </c>
       <c r="G43" t="n">
-        <v>0.592384791371609</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.423744240886455</v>
+        <v>2.016129032258065</v>
       </c>
     </row>
     <row r="44">
@@ -1701,7 +1741,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1714,10 +1754,10 @@
         <v>2.016129032258065</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2859788648000872</v>
+        <v>2.387288977159881</v>
       </c>
       <c r="H44" t="n">
-        <v>1.730150167457977</v>
+        <v>-0.3711599449018164</v>
       </c>
     </row>
     <row r="45">
@@ -1731,7 +1771,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1744,10 +1784,10 @@
         <v>2.016129032258065</v>
       </c>
       <c r="G45" t="n">
-        <v>2.425373134328358</v>
+        <v>0.09533267130089375</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.4092441020702937</v>
+        <v>1.920796360957171</v>
       </c>
     </row>
     <row r="46">
@@ -1756,12 +1796,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1773,8 +1813,12 @@
       <c r="F46" t="n">
         <v>2.016129032258065</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0.2859980139026813</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.730131018355383</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1800,10 +1844,10 @@
         <v>2.016129032258065</v>
       </c>
       <c r="G47" t="n">
-        <v>0.002723608236191306</v>
+        <v>0.007944389275074478</v>
       </c>
       <c r="H47" t="n">
-        <v>2.013405424021873</v>
+        <v>2.00818464298299</v>
       </c>
     </row>
     <row r="48">
@@ -1812,12 +1856,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1830,10 +1874,10 @@
         <v>2.016129032258065</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1702255147619567</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.845903517496108</v>
+        <v>2.016129032258065</v>
       </c>
     </row>
     <row r="49">
@@ -1842,12 +1886,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1859,8 +1903,12 @@
       <c r="F49" t="n">
         <v>2.016129032258065</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.02780536246276067</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.988323669795304</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1873,7 +1921,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1885,8 +1933,12 @@
       <c r="F50" t="n">
         <v>2.016129032258065</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.016129032258065</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1899,7 +1951,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1911,8 +1963,12 @@
       <c r="F51" t="n">
         <v>1.612903225806452</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.612903225806452</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1925,7 +1981,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1937,8 +1993,12 @@
       <c r="F52" t="n">
         <v>1.612903225806452</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.612903225806452</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1964,10 +2024,10 @@
         <v>0.8064516129032258</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1457130406362349</v>
+        <v>0.07944389275074479</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6607385722669908</v>
+        <v>0.7270077201524809</v>
       </c>
     </row>
   </sheetData>
